--- a/gamedata/battle5/skills.xlsx
+++ b/gamedata/battle5/skills.xlsx
@@ -411,7 +411,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,7 +450,7 @@
         <v>最基础的普通攻击</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>baseatk</v>
+        <v>basicatk</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/battle5/skills.xlsx
+++ b/gamedata/battle5/skills.xlsx
@@ -438,6 +438,15 @@
       <c r="F1" s="1" t="str">
         <v>atkstrval</v>
       </c>
+      <c r="G1" s="1" t="str">
+        <v>findfunc</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <v>findval</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <v>findstrval</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -451,6 +460,12 @@
       </c>
       <c r="D2" s="1" t="str">
         <v>basicatk</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>findnear</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <v>1|</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/battle5/skills.xlsx
+++ b/gamedata/battle5/skills.xlsx
@@ -415,8 +415,11 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -433,19 +436,19 @@
         <v>atkfunc</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>atkval</v>
+        <v>atkvals</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>atkstrval</v>
+        <v>atkstrvals</v>
       </c>
       <c r="G1" s="1" t="str">
         <v>findfunc</v>
       </c>
       <c r="H1" s="1" t="str">
-        <v>findval</v>
+        <v>findvals</v>
       </c>
       <c r="I1" s="1" t="str">
-        <v>findstrval</v>
+        <v>findstrvals</v>
       </c>
     </row>
     <row r="2">

--- a/gamedata/battle5/skills.xlsx
+++ b/gamedata/battle5/skills.xlsx
@@ -47,6 +47,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,12 +415,14 @@
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -433,27 +436,33 @@
         <v>info</v>
       </c>
       <c r="D1" s="1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>releasetype</v>
+      </c>
+      <c r="F1" s="1" t="str">
         <v>atkfunc</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="G1" s="1" t="str">
         <v>atkvals</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>atkstrvals</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>findfunc</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>findvals</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="K1" s="1" t="str">
         <v>findstrvals</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>9000001</v>
+        <v>900001</v>
       </c>
       <c r="B2" s="1" t="str">
         <v>物理普攻</v>
@@ -464,10 +473,22 @@
       <c r="D2" s="1" t="str">
         <v>basicatk</v>
       </c>
+      <c r="E2" s="1" t="str">
+        <v>normal</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>basicatk</v>
+      </c>
       <c r="G2" s="1" t="str">
+        <v>100|</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <v>|</v>
+      </c>
+      <c r="I2" s="1" t="str">
         <v>findnear</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="J2" s="1" t="str">
         <v>1|</v>
       </c>
     </row>

--- a/gamedata/battle5/skills.xlsx
+++ b/gamedata/battle5/skills.xlsx
@@ -414,7 +414,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="8"/>
@@ -423,6 +423,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -459,6 +460,24 @@
       <c r="K1" s="1" t="str">
         <v>findstrvals</v>
       </c>
+      <c r="L1" s="1" t="str">
+        <v>onstartfunc</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <v>onstartvals</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <v>onstartstrvals</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <v>onendfunc</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <v>onendvals</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <v>onendstrvals</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -490,6 +509,29 @@
       </c>
       <c r="J2" s="1" t="str">
         <v>1|</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>嘲讽</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>自己减伤吸引范围敌人攻击自己</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <v>normal</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <v>attachbuffs</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <v>2|1000000|1000001</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <v>link|</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/battle5/skills.xlsx
+++ b/gamedata/battle5/skills.xlsx
@@ -531,7 +531,7 @@
         <v>2|1000000|1000001</v>
       </c>
       <c r="N3" s="1" t="str">
-        <v>link|</v>
+        <v>|</v>
       </c>
     </row>
   </sheetData>
